--- a/biology/Zoologie/Brigittea/Brigittea.xlsx
+++ b/biology/Zoologie/Brigittea/Brigittea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brigittea est un genre d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brigittea est un genre d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique[1]. Brigittea civica a été introduite en Amérique du Nord.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique. Brigittea civica a été introduite en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 31/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 31/03/2024) :
 Brigittea avicenna Zamani &amp; Marusik, 2021
 Brigittea civica (Lucas, 1848)
 Brigittea innocens (O. Pickard-Cambridge, 1872)
@@ -577,9 +593,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Lehtinen en 1967 dans les Dictynidae. Il est placé en synonymie avec Dictyna par Wunderlich en 1987[2]. Il est relevé de synonymie par Marusik, Esyunin et Tuneva en 2015[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Lehtinen en 1967 dans les Dictynidae. Il est placé en synonymie avec Dictyna par Wunderlich en 1987. Il est relevé de synonymie par Marusik, Esyunin et Tuneva en 2015.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lehtinen, 1967 : « Classification of the cribellate spiders and some allied families, with notes on the evolution of the suborder Araneomorpha. » Annales Zoologici Fennici, vol. 4, p. 199-468.</t>
         </is>
